--- a/Files/Tables/Equipment/Exotic/Exotic Weapons.xlsx
+++ b/Files/Tables/Equipment/Exotic/Exotic Weapons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>WEAPON</t>
   </si>
@@ -73,9 +73,6 @@
     </r>
   </si>
   <si>
-    <t>BONUS</t>
-  </si>
-  <si>
     <t>Yokudan Sword</t>
   </si>
   <si>
@@ -140,6 +137,12 @@
   </si>
   <si>
     <t>ammo/projectile</t>
+  </si>
+  <si>
+    <t>BONUS(ES)</t>
+  </si>
+  <si>
+    <t>SOCKET COUNT</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K25"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +565,12 @@
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,7 +581,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -585,8 +590,8 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -615,151 +620,154 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
